--- a/report/inputs/nonprofits_shell.xlsx
+++ b/report/inputs/nonprofits_shell.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donbo\Documents\R_projects\crankstart\report\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donbo\Documents\R_projects\crankstart\report\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C5B236-86FE-438D-A916-627AD6E0C4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80365388-A722-4E60-AAF6-0B99A827A949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="4" xr2:uid="{E50764A0-35ED-42A1-B5FC-9DFE84EF049E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E50764A0-35ED-42A1-B5FC-9DFE84EF049E}"/>
   </bookViews>
   <sheets>
-    <sheet name="TOC" sheetId="10" r:id="rId1"/>
+    <sheet name="TOC" sheetId="17" r:id="rId1"/>
     <sheet name="top_departments" sheetId="1" r:id="rId2"/>
-    <sheet name="top_nonprofits" sheetId="2" r:id="rId3"/>
-    <sheet name="topnonprofits_by_topdepts" sheetId="5" r:id="rId4"/>
-    <sheet name="allnonprofits_by_alldepts" sheetId="7" r:id="rId5"/>
-    <sheet name="dcyf_allocations" sheetId="11" r:id="rId6"/>
+    <sheet name="dept_nonprofitshares" sheetId="14" r:id="rId3"/>
+    <sheet name="top_nonprofits" sheetId="2" r:id="rId4"/>
+    <sheet name="nonprofit_deptshares" sheetId="16" r:id="rId5"/>
+    <sheet name="topnonprofits_by_topdepts" sheetId="5" r:id="rId6"/>
+    <sheet name="allnonprofits_by_alldepts" sheetId="7" r:id="rId7"/>
+    <sheet name="dcyf_allocations" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Rank</t>
   </si>
@@ -152,6 +154,42 @@
   </si>
   <si>
     <t>City of San Francisco</t>
+  </si>
+  <si>
+    <t>Percent of department budget</t>
+  </si>
+  <si>
+    <t>Number of nonprofit recipients</t>
+  </si>
+  <si>
+    <t>Largest amount paid to a nonprofit recipient</t>
+  </si>
+  <si>
+    <t>Largest amount as percent of department's payments to nonprofits</t>
+  </si>
+  <si>
+    <t>Nonprofit entity</t>
+  </si>
+  <si>
+    <t>Number of department payors</t>
+  </si>
+  <si>
+    <t>Largest amount paid by a department</t>
+  </si>
+  <si>
+    <t>Largest amount as percent of nonprofit's payments from departments</t>
+  </si>
+  <si>
+    <t>dept_nonprofitshares</t>
+  </si>
+  <si>
+    <t>nonprofit_deptshares</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -243,7 +281,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,6 +303,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -274,20 +324,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -605,10 +646,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025D71C0-C3F6-49C8-9DD1-8AE3EECD0EED}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB82E4D-0D53-4BBE-AEE0-712997AF0AAB}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -642,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -650,7 +691,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -658,7 +699,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -666,16 +707,34 @@
         <v>24</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'top_departments'!A1" display="top_departments" xr:uid="{1BF85345-B8E6-4EDD-B4E0-E3DBC39CDB0F}"/>
-    <hyperlink ref="B3" location="'top_nonprofits'!A1" display="top_nonprofits" xr:uid="{8543BCFC-E298-4574-96F7-D135D6F38F70}"/>
-    <hyperlink ref="B4" location="'topnonprofits_by_topdepts'!A1" display="topnonprofits_by_topdepts" xr:uid="{3910F5BB-F9D3-4969-AF65-5559767BD60E}"/>
-    <hyperlink ref="B5" location="'allnonprofits_by_alldepts'!A1" display="allnonprofits_by_alldepts" xr:uid="{73B42F12-42D4-4218-ADAB-384D26F6F960}"/>
-    <hyperlink ref="B6" location="'dcyf_allocations'!A1" display="dcyf_allocations" xr:uid="{17E9F034-167D-48A6-A133-ED5C70E88B78}"/>
+    <hyperlink ref="B2" location="'top_departments'!A1" display="top_departments" xr:uid="{3CC01705-84B3-45F2-B640-6BEA0DF1B251}"/>
+    <hyperlink ref="B3" location="'dept_nonprofitshares'!A1" display="dept_nonprofitshares" xr:uid="{879EF434-350C-46F7-B49B-344DE91EF6A2}"/>
+    <hyperlink ref="B4" location="'top_nonprofits'!A1" display="top_nonprofits" xr:uid="{11F0BC32-A674-4DE7-A047-088535308B25}"/>
+    <hyperlink ref="B5" location="'nonprofit_deptshares'!A1" display="nonprofit_deptshares" xr:uid="{3540D508-9761-4649-96B6-F43D28079457}"/>
+    <hyperlink ref="B6" location="'topnonprofits_by_topdepts'!A1" display="topnonprofits_by_topdepts" xr:uid="{75BCE81B-14E0-489E-B31B-DC12920941C2}"/>
+    <hyperlink ref="B7" location="'allnonprofits_by_alldepts'!A1" display="allnonprofits_by_alldepts" xr:uid="{DA9E66F5-F5E4-4644-9567-6AF190639718}"/>
+    <hyperlink ref="B8" location="'dcyf_allocations'!A1" display="dcyf_allocations" xr:uid="{68E610A3-83AF-406F-979E-DD370A8FBE51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -684,7 +743,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1551DB-97C2-40C5-B51D-464CE2BC0FFE}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
@@ -696,37 +755,40 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="4" customWidth="1"/>
     <col min="5" max="6" width="12.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,11 +807,14 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{EFDAC9A5-7355-43EE-B77A-A9EF7E289E0C}"/>
@@ -760,6 +825,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884C27DC-2264-4ACA-9B38-74490C85861B}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{412313BD-8689-466E-A35F-A39AF15FEE4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6030F36A-9219-4C7D-A59F-E3A3A28D7DD8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -783,22 +932,22 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -830,7 +979,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC501EC6-A02E-4C88-90AE-845D3AB90999}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{A59C0A19-C838-4D0F-8CF2-C045FA8B8E72}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAC17BF-C722-4729-84DF-37E83EE34DB0}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -838,7 +1065,7 @@
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,15 +1119,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{012634A9-D5D5-40F0-91C3-9C6E7AB1FB8B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,7 +1181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BD68AA-A4A3-45F2-9605-F3B013D56BB7}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -962,18 +1189,18 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD7"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
-    <col min="2" max="2" width="50.77734375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="17" customWidth="1"/>
-    <col min="4" max="5" width="30.77734375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="40.77734375" style="16" customWidth="1"/>
-    <col min="7" max="71" width="15.77734375" style="16" customWidth="1"/>
-    <col min="72" max="16384" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="50.77734375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="30.77734375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="12" customWidth="1"/>
+    <col min="7" max="71" width="15.77734375" style="12" customWidth="1"/>
+    <col min="72" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -990,28 +1217,28 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4"/>
@@ -1022,10 +1249,10 @@
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1046,10 +1273,10 @@
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>34</v>
       </c>
     </row>
